--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.040221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.040221.xlsx_with_dialog_acts.xlsx
@@ -699,12 +699,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1577,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1995,12 +1995,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2455,12 +2455,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2835,12 +2835,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3443,12 +3443,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3519,12 +3519,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3903,12 +3903,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4055,12 +4055,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4207,12 +4207,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4363,12 +4363,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4707,12 +4707,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4783,12 +4783,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4821,12 +4821,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4897,12 +4897,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5349,12 +5349,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5539,12 +5539,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5615,12 +5615,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5767,12 +5767,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5805,12 +5805,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5957,12 +5957,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6109,12 +6109,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6337,12 +6337,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7439,12 +7439,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8005,12 +8005,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8043,12 +8043,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8347,12 +8347,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8575,12 +8575,12 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8613,12 +8613,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8763,12 +8763,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8801,12 +8801,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8877,12 +8877,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9067,12 +9067,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9413,12 +9413,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9527,12 +9527,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9565,12 +9565,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9943,12 +9943,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10057,12 +10057,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10133,12 +10133,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10285,12 +10285,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11847,12 +11847,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12151,12 +12151,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12189,12 +12189,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12531,12 +12531,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12797,12 +12797,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13025,12 +13025,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13595,12 +13595,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13633,12 +13633,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13823,12 +13823,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13899,12 +13899,12 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13937,12 +13937,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14165,12 +14165,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14355,12 +14355,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15153,12 +15153,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15229,12 +15229,12 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15343,12 +15343,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15991,12 +15991,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16147,12 +16147,12 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16523,12 +16523,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16599,12 +16599,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16983,12 +16983,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17059,12 +17059,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17287,12 +17287,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17401,12 +17401,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17705,12 +17705,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17781,12 +17781,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17971,12 +17971,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18085,12 +18085,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18123,12 +18123,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18579,12 +18579,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18731,12 +18731,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18883,12 +18883,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19187,12 +19187,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19491,12 +19491,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19833,12 +19833,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19871,12 +19871,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19909,12 +19909,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20023,12 +20023,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20061,12 +20061,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20099,12 +20099,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20365,12 +20365,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20745,12 +20745,12 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20897,12 +20897,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21771,12 +21771,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21999,12 +21999,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22265,12 +22265,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22417,12 +22417,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22493,12 +22493,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23251,12 +23251,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24013,12 +24013,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24889,12 +24889,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25003,12 +25003,12 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25421,12 +25421,12 @@
       <c r="H657" t="inlineStr"/>
       <c r="I657" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25497,12 +25497,12 @@
       <c r="H659" t="inlineStr"/>
       <c r="I659" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25535,12 +25535,12 @@
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25573,12 +25573,12 @@
       <c r="H661" t="inlineStr"/>
       <c r="I661" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25725,12 +25725,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25839,12 +25839,12 @@
       <c r="H668" t="inlineStr"/>
       <c r="I668" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26679,12 +26679,12 @@
       <c r="H690" t="inlineStr"/>
       <c r="I690" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27441,12 +27441,12 @@
       <c r="H710" t="inlineStr"/>
       <c r="I710" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28241,12 +28241,12 @@
       <c r="H731" t="inlineStr"/>
       <c r="I731" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28317,12 +28317,12 @@
       <c r="H733" t="inlineStr"/>
       <c r="I733" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28667,12 +28667,12 @@
       <c r="H742" t="inlineStr"/>
       <c r="I742" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28781,12 +28781,12 @@
       <c r="H745" t="inlineStr"/>
       <c r="I745" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28857,12 +28857,12 @@
       <c r="H747" t="inlineStr"/>
       <c r="I747" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29051,12 +29051,12 @@
       <c r="H752" t="inlineStr"/>
       <c r="I752" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29967,12 +29967,12 @@
       <c r="H776" t="inlineStr"/>
       <c r="I776" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30309,12 +30309,12 @@
       <c r="H785" t="inlineStr"/>
       <c r="I785" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31221,12 +31221,12 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31373,12 +31373,12 @@
       <c r="H813" t="inlineStr"/>
       <c r="I813" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31719,12 +31719,12 @@
       <c r="H822" t="inlineStr"/>
       <c r="I822" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32099,12 +32099,12 @@
       <c r="H832" t="inlineStr"/>
       <c r="I832" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32175,12 +32175,12 @@
       <c r="H834" t="inlineStr"/>
       <c r="I834" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32629,12 +32629,12 @@
       <c r="H846" t="inlineStr"/>
       <c r="I846" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32705,12 +32705,12 @@
       <c r="H848" t="inlineStr"/>
       <c r="I848" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32895,12 +32895,12 @@
       <c r="H853" t="inlineStr"/>
       <c r="I853" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32933,12 +32933,12 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33161,12 +33161,12 @@
       <c r="H860" t="inlineStr"/>
       <c r="I860" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33545,12 +33545,12 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33583,12 +33583,12 @@
       <c r="H871" t="inlineStr"/>
       <c r="I871" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33659,12 +33659,12 @@
       <c r="H873" t="inlineStr"/>
       <c r="I873" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33773,12 +33773,12 @@
       <c r="H876" t="inlineStr"/>
       <c r="I876" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33887,12 +33887,12 @@
       <c r="H879" t="inlineStr"/>
       <c r="I879" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
